--- a/jack+jill.xlsx
+++ b/jack+jill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\ARP-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4866E1-6FE8-4142-BBF8-5A98FB04E359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B304001C-F00C-427F-96C2-32D45E3A16A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="15030" windowWidth="21600" windowHeight="11295" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-28905" yWindow="12690" windowWidth="13965" windowHeight="15585" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Jack" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>big ticket items</t>
-  </si>
-  <si>
     <t>Roth X</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>anticipated wages</t>
+  </si>
+  <si>
+    <t>big-ticket items</t>
   </si>
 </sst>
 </file>
@@ -422,8 +422,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,28 +448,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,8 +904,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,28 +926,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
